--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4C7941-9489-47D4-93E4-67FE0ACA469B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" xr2:uid="{58EF43C8-9295-47C2-BDB1-7E69D5D7FFC3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -535,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F563F8C-7AFA-4032-84F9-87B23B355008}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,6 +669,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -705,16 +705,18 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>A$1*1.1</f>
+        <f>D3</f>
         <v>58.300000000000004</v>
       </c>
       <c r="E4" s="1">
@@ -728,17 +730,18 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>4051.8500000000004</v>
       </c>
       <c r="L4" s="1"/>
@@ -763,16 +766,18 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="3">A$1*1.1</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>58.300000000000004</v>
       </c>
       <c r="E5" s="1">
@@ -786,17 +791,18 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4022.7000000000003</v>
       </c>
       <c r="L5" s="1"/>
@@ -821,16 +827,18 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E6" s="1">
@@ -844,17 +852,18 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3993.55</v>
       </c>
       <c r="L6" s="1"/>
@@ -879,16 +888,18 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E7" s="1">
@@ -902,17 +913,18 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3964.4</v>
       </c>
       <c r="L7" s="1"/>
@@ -937,16 +949,18 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E8" s="1">
@@ -960,17 +974,18 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3935.2500000000005</v>
       </c>
       <c r="L8" s="1"/>
@@ -995,16 +1010,18 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E9" s="1">
@@ -1018,17 +1035,18 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3906.1000000000004</v>
       </c>
       <c r="L9" s="1"/>
@@ -1053,16 +1071,18 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E10" s="1">
@@ -1076,17 +1096,18 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3876.9500000000003</v>
       </c>
       <c r="L10" s="1"/>
@@ -1111,16 +1132,18 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E11" s="1">
@@ -1134,17 +1157,18 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3847.8</v>
       </c>
       <c r="L11" s="1"/>
@@ -1169,16 +1193,18 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E12" s="1">
@@ -1192,17 +1218,18 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3828.65</v>
       </c>
       <c r="L12" s="1"/>
@@ -1227,16 +1254,18 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E13" s="1">
@@ -1250,17 +1279,18 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3809.5000000000005</v>
       </c>
       <c r="L13" s="1"/>
@@ -1285,16 +1315,18 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E14" s="1">
@@ -1308,17 +1340,18 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3790.3500000000004</v>
       </c>
       <c r="L14" s="1"/>
@@ -1343,16 +1376,18 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E15" s="1">
@@ -1366,17 +1401,18 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3771.2000000000003</v>
       </c>
       <c r="L15" s="1"/>
@@ -1401,16 +1437,18 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E16" s="1">
@@ -1424,17 +1462,18 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3752.05</v>
       </c>
       <c r="L16" s="1"/>
@@ -1459,16 +1498,18 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E17" s="1">
@@ -1482,17 +1523,18 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3732.9</v>
       </c>
       <c r="L17" s="1"/>
@@ -1517,16 +1559,18 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E18" s="1">
@@ -1540,17 +1584,18 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3713.7500000000005</v>
       </c>
       <c r="L18" s="1"/>
@@ -1575,16 +1620,18 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E19" s="1">
@@ -1598,17 +1645,18 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3694.6000000000004</v>
       </c>
       <c r="L19" s="1"/>
@@ -1633,16 +1681,18 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E20" s="1">
@@ -1656,17 +1706,18 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3675.4500000000003</v>
       </c>
       <c r="L20" s="1"/>
@@ -1691,16 +1742,18 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E21" s="1">
@@ -1714,17 +1767,18 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3656.3</v>
       </c>
       <c r="L21" s="1"/>
@@ -1749,16 +1803,18 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E22" s="1">
@@ -1772,17 +1828,18 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3637.15</v>
       </c>
       <c r="L22" s="1"/>
@@ -1807,16 +1864,18 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E23" s="1">
@@ -1830,17 +1889,18 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3618.0000000000005</v>
       </c>
       <c r="L23" s="1"/>
@@ -1865,16 +1925,18 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E24" s="1">
@@ -1888,17 +1950,18 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3598.8500000000004</v>
       </c>
       <c r="L24" s="1"/>
@@ -1923,16 +1986,18 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E25" s="1">
@@ -1946,17 +2011,18 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3579.7000000000003</v>
       </c>
       <c r="L25" s="1"/>
@@ -1981,16 +2047,18 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E26" s="1">
@@ -2004,17 +2072,18 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3560.55</v>
       </c>
       <c r="L26" s="1"/>
@@ -2039,16 +2108,18 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E27" s="1">
@@ -2062,17 +2133,18 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3541.4</v>
       </c>
       <c r="L27" s="1"/>
@@ -2097,16 +2169,18 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E28" s="1">
@@ -2120,17 +2194,18 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3522.2500000000005</v>
       </c>
       <c r="L28" s="1"/>
@@ -2155,16 +2230,18 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E29" s="1">
@@ -2178,17 +2255,18 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3503.1000000000004</v>
       </c>
       <c r="L29" s="1"/>
@@ -2213,16 +2291,18 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E30" s="1">
@@ -2236,17 +2316,18 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3483.9500000000003</v>
       </c>
       <c r="L30" s="1"/>
@@ -2271,16 +2352,18 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E31" s="1">
@@ -2294,17 +2377,18 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3464.8</v>
       </c>
       <c r="L31" s="1"/>
@@ -2329,16 +2413,18 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E32" s="1">
@@ -2352,17 +2438,18 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3445.65</v>
       </c>
       <c r="L32" s="1"/>
@@ -2387,16 +2474,18 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E33" s="1">
@@ -2410,17 +2499,18 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3426.5000000000005</v>
       </c>
       <c r="L33" s="1"/>
@@ -2445,16 +2535,18 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.300000000000004</v>
       </c>
       <c r="E34" s="1">
@@ -2468,17 +2560,18 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3407.3500000000004</v>
       </c>
       <c r="L34" s="1"/>
@@ -2503,16 +2596,18 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D37" si="4">(A$1*1.1)/2</f>
+        <f>D3/2</f>
         <v>29.150000000000002</v>
       </c>
       <c r="E35" s="1">
@@ -2526,17 +2621,18 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1814.1000000000001</v>
       </c>
       <c r="L35" s="1"/>
@@ -2561,16 +2657,18 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D36:D38" si="7">D4/2</f>
         <v>29.150000000000002</v>
       </c>
       <c r="E36" s="1">
@@ -2584,17 +2682,18 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1809.5250000000001</v>
       </c>
       <c r="L36" s="1"/>
@@ -2619,16 +2718,18 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>29.150000000000002</v>
       </c>
       <c r="E37" s="1">
@@ -2642,17 +2743,18 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1804.95</v>
       </c>
       <c r="L37" s="1"/>
@@ -2677,16 +2779,18 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>(A$1*1.1)/2</f>
+        <f t="shared" si="7"/>
         <v>29.150000000000002</v>
       </c>
       <c r="E38" s="1">
@@ -2700,17 +2804,18 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1800.375</v>
       </c>
       <c r="L38" s="1"/>
@@ -2738,8 +2843,8 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <f>SUM(K3:K38)</f>
-        <v>126122.55</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>126122</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3807A56A-D1FD-4928-B804-A55FF6C72874}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,15 +42,6 @@
     <t>Средняя площадь</t>
   </si>
   <si>
-    <t>Общая сумма,руб.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки,д.</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате,руб.</t>
-  </si>
-  <si>
     <t>Ахмадеев</t>
   </si>
   <si>
@@ -161,15 +153,9 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Просрочка, д.</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Тариф, руб.</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -177,12 +163,27 @@
   </si>
   <si>
     <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -534,11 +535,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -613,16 +614,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -649,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -709,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -770,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -831,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -892,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -953,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -1014,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -1075,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -1136,7 +1137,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1197,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1258,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1319,7 +1320,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1380,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1441,7 +1442,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1502,7 +1503,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1563,7 +1564,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1624,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1685,7 +1686,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1746,7 +1747,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1807,7 +1808,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1868,7 +1869,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1929,7 +1930,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1990,7 +1991,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -2051,7 +2052,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -2112,7 +2113,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -2173,7 +2174,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -2234,7 +2235,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -2295,7 +2296,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -2356,7 +2357,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -2417,7 +2418,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -2478,7 +2479,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2539,7 +2540,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2600,7 +2601,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2661,7 +2662,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2722,7 +2723,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2783,7 +2784,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2840,7 +2841,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2858,7 +2859,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <f>MAX(K3:K38)</f>
@@ -2867,7 +2868,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <f>MAX(H3:H38)</f>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3807A56A-D1FD-4928-B804-A55FF6C72874}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -535,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2859,20 +2858,20 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <f>MAX(H3:H38)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <f>MAX(K3:K38)</f>
         <v>4081.0000000000005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43">
-        <f>MAX(H3:H38)</f>
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -35,9 +35,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Средняя площадь</t>
   </si>
   <si>
@@ -170,13 +167,16 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>общая сумма, руб.</t>
-  </si>
-  <si>
     <t>Максимальная сумма к оплате, руб.</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,16 +595,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -613,16 +613,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -770,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -953,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -1014,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -1075,7 +1075,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -1136,7 +1136,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1319,7 +1319,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1380,7 +1380,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1441,7 +1441,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1502,7 +1502,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1563,7 +1563,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1624,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1685,7 +1685,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1746,7 +1746,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1807,7 +1807,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1868,7 +1868,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1929,7 +1929,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1990,7 +1990,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -2051,7 +2051,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -2112,7 +2112,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -2173,7 +2173,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -2234,7 +2234,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -2295,7 +2295,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -2356,7 +2356,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -2478,7 +2478,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2539,7 +2539,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2600,7 +2600,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2661,7 +2661,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2722,7 +2722,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2783,7 +2783,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -892,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -953,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -35,9 +35,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
     <t>Ахмадеев</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м</t>
   </si>
 </sst>
 </file>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,16 +595,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -613,16 +613,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -727,6 +727,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="2">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -770,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -788,6 +789,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -831,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -849,6 +851,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -910,6 +913,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -953,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -971,6 +975,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -1014,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -1032,6 +1037,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -1075,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -1093,6 +1099,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -1136,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1154,6 +1161,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1197,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1215,6 +1223,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1258,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1276,6 +1285,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1319,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1337,6 +1347,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1380,7 +1391,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1398,6 +1409,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1441,7 +1453,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1459,6 +1471,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1502,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1520,6 +1533,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1563,7 +1577,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1581,6 +1595,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1624,7 +1639,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1642,6 +1657,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1685,7 +1701,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1703,6 +1719,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1746,7 +1763,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1764,6 +1781,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1807,7 +1825,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1825,6 +1843,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1868,7 +1887,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1886,6 +1905,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1929,7 +1949,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1947,6 +1967,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1990,7 +2011,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -2008,6 +2029,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -2051,7 +2073,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -2069,6 +2091,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -2112,7 +2135,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -2130,6 +2153,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -2173,7 +2197,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -2191,6 +2215,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -2234,7 +2259,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -2252,6 +2277,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -2295,7 +2321,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -2313,6 +2339,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -2356,7 +2383,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -2374,6 +2401,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -2417,7 +2445,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -2435,6 +2463,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -2478,7 +2507,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2496,6 +2525,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -2539,7 +2569,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2557,6 +2587,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -2600,7 +2631,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2618,6 +2649,7 @@
         <v>44813</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2661,14 +2693,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="7">D4/2</f>
+        <f t="shared" ref="D36:D38" si="8">D4/2</f>
         <v>29.150000000000002</v>
       </c>
       <c r="E36" s="1">
@@ -2679,6 +2711,7 @@
         <v>44813</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2722,14 +2755,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.150000000000002</v>
       </c>
       <c r="E37" s="1">
@@ -2740,6 +2773,7 @@
         <v>44813</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2783,14 +2817,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.150000000000002</v>
       </c>
       <c r="E38" s="1">
@@ -2801,6 +2835,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2840,7 +2875,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2849,7 +2884,7 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2858,7 +2893,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2867,7 +2902,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G38"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,6 +724,7 @@
         <v>4051.8500000000004</v>
       </c>
       <c r="F4" s="2">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="2">
@@ -735,6 +736,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -786,10 +788,11 @@
         <v>4022.7000000000003</v>
       </c>
       <c r="F5" s="2">
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -797,6 +800,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -848,10 +852,11 @@
         <v>3993.55</v>
       </c>
       <c r="F6" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -859,6 +864,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -910,10 +916,11 @@
         <v>3964.4</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -921,6 +928,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -972,10 +980,11 @@
         <v>3935.2500000000005</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -983,6 +992,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -1034,10 +1044,11 @@
         <v>3906.1000000000004</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -1045,6 +1056,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -1096,10 +1108,11 @@
         <v>3876.9500000000003</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -1107,6 +1120,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -1158,10 +1172,11 @@
         <v>3847.8</v>
       </c>
       <c r="F11" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -1169,6 +1184,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1220,10 +1236,11 @@
         <v>3818.65</v>
       </c>
       <c r="F12" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1231,6 +1248,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1282,10 +1300,11 @@
         <v>3789.5000000000005</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1293,6 +1312,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1344,10 +1364,11 @@
         <v>3760.3500000000004</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1355,6 +1376,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1406,10 +1428,11 @@
         <v>3731.2000000000003</v>
       </c>
       <c r="F15" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1417,6 +1440,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1468,10 +1492,11 @@
         <v>3702.05</v>
       </c>
       <c r="F16" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1479,6 +1504,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1530,10 +1556,11 @@
         <v>3672.9</v>
       </c>
       <c r="F17" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1541,6 +1568,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1592,10 +1620,11 @@
         <v>3643.7500000000005</v>
       </c>
       <c r="F18" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1603,6 +1632,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1654,10 +1684,11 @@
         <v>3614.6000000000004</v>
       </c>
       <c r="F19" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1665,6 +1696,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1716,10 +1748,11 @@
         <v>3585.4500000000003</v>
       </c>
       <c r="F20" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1727,6 +1760,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1778,10 +1812,11 @@
         <v>3556.3</v>
       </c>
       <c r="F21" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1789,6 +1824,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1840,10 +1876,11 @@
         <v>3527.15</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1851,6 +1888,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1902,10 +1940,11 @@
         <v>3498.0000000000005</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1913,6 +1952,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1964,10 +2004,11 @@
         <v>3468.8500000000004</v>
       </c>
       <c r="F24" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1975,6 +2016,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -2026,10 +2068,11 @@
         <v>3439.7000000000003</v>
       </c>
       <c r="F25" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -2037,6 +2080,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -2088,10 +2132,11 @@
         <v>3410.55</v>
       </c>
       <c r="F26" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -2099,6 +2144,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -2150,10 +2196,11 @@
         <v>3381.4</v>
       </c>
       <c r="F27" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -2161,6 +2208,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -2212,10 +2260,11 @@
         <v>3352.2500000000005</v>
       </c>
       <c r="F28" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -2223,6 +2272,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -2274,10 +2324,11 @@
         <v>3323.1000000000004</v>
       </c>
       <c r="F29" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -2285,6 +2336,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -2336,10 +2388,11 @@
         <v>3293.9500000000003</v>
       </c>
       <c r="F30" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -2347,6 +2400,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -2398,10 +2452,11 @@
         <v>3264.8</v>
       </c>
       <c r="F31" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -2409,6 +2464,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -2460,10 +2516,11 @@
         <v>3235.65</v>
       </c>
       <c r="F32" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -2471,6 +2528,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -2522,10 +2580,11 @@
         <v>3206.5000000000005</v>
       </c>
       <c r="F33" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -2533,6 +2592,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -2584,10 +2644,11 @@
         <v>3177.3500000000004</v>
       </c>
       <c r="F34" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -2595,6 +2656,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2646,10 +2708,11 @@
         <v>1574.1000000000001</v>
       </c>
       <c r="F35" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2657,6 +2720,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2700,7 +2764,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="8">D4/2</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>29.150000000000002</v>
       </c>
       <c r="E36" s="1">
@@ -2708,10 +2772,11 @@
         <v>1559.5250000000001</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2719,6 +2784,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2762,7 +2828,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29.150000000000002</v>
       </c>
       <c r="E37" s="1">
@@ -2770,10 +2836,11 @@
         <v>1544.95</v>
       </c>
       <c r="F37" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2781,6 +2848,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2824,7 +2892,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29.150000000000002</v>
       </c>
       <c r="E38" s="1">
@@ -2832,10 +2900,11 @@
         <v>1530.375</v>
       </c>
       <c r="F38" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2843,6 +2912,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -116,9 +116,6 @@
     <t>Куропаткин 3</t>
   </si>
   <si>
-    <t xml:space="preserve"> Куропаткин 4</t>
-  </si>
-  <si>
     <t>Куропаткин 5</t>
   </si>
   <si>
@@ -128,21 +125,12 @@
     <t>Куропаткин 7</t>
   </si>
   <si>
-    <t xml:space="preserve"> Куропаткин 8</t>
-  </si>
-  <si>
     <t>Куропаткин 9</t>
   </si>
   <si>
     <t xml:space="preserve"> Куропаткин 10</t>
   </si>
   <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -176,7 +164,19 @@
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, кв.м</t>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 12</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,21 +539,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I38"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
@@ -595,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -613,16 +615,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -2373,7 +2375,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -2437,7 +2439,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -2501,7 +2503,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -2565,7 +2567,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2629,7 +2631,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2693,7 +2695,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2757,14 +2759,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>29.150000000000002</v>
       </c>
       <c r="E36" s="1">
@@ -2821,14 +2823,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>29.150000000000002</v>
       </c>
       <c r="E37" s="1">
@@ -2885,14 +2887,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>29.150000000000002</v>
       </c>
       <c r="E38" s="1">
@@ -2945,7 +2947,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2953,8 +2955,8 @@
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>50</v>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2962,8 +2964,8 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>47</v>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2971,8 +2973,8 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>46</v>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -86,9 +86,6 @@
     <t>Лапыгин</t>
   </si>
   <si>
-    <t>Махмудхуджаев</t>
-  </si>
-  <si>
     <t>Пунько</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Куропаткин 12</t>
+  </si>
+  <si>
+    <t>Махмудхужаев</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -615,16 +615,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1735,7 +1735,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1799,7 +1799,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1863,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1927,7 +1927,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1991,7 +1991,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -2055,7 +2055,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -2119,7 +2119,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -2183,7 +2183,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -2247,7 +2247,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -2311,7 +2311,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -2375,7 +2375,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -2439,7 +2439,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -2503,7 +2503,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -2567,7 +2567,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2631,7 +2631,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2695,7 +2695,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2759,7 +2759,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2823,7 +2823,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2887,7 +2887,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -34,202 +26,169 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
+    <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Ахмадеев</t>
+  </si>
+  <si>
+    <t>Ахметзянов</t>
+  </si>
+  <si>
+    <t>Ахтямова</t>
+  </si>
+  <si>
+    <t>Бабенко</t>
+  </si>
+  <si>
+    <t>Белов</t>
+  </si>
+  <si>
+    <t>Билалова</t>
+  </si>
+  <si>
+    <t>Булдаков</t>
+  </si>
+  <si>
+    <t>Газетдинов</t>
+  </si>
+  <si>
+    <t>Галимова</t>
+  </si>
+  <si>
+    <t>Добросов</t>
+  </si>
+  <si>
+    <t>Зеленцов</t>
+  </si>
+  <si>
+    <t>Казанкин</t>
+  </si>
+  <si>
+    <t>Камалов</t>
+  </si>
+  <si>
+    <t>Конькова</t>
+  </si>
+  <si>
+    <t>Крутобережников</t>
+  </si>
+  <si>
+    <t>Курбанбаев</t>
+  </si>
+  <si>
+    <t>Лапыгин</t>
+  </si>
+  <si>
+    <t>Пунько</t>
+  </si>
+  <si>
+    <t>Рафикова</t>
+  </si>
+  <si>
+    <t>Соловьева</t>
+  </si>
+  <si>
+    <t>Хайруллина</t>
+  </si>
+  <si>
+    <t>Шагимарданова</t>
+  </si>
+  <si>
+    <t>Щепина</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 5</t>
+  </si>
+  <si>
+    <t>Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 7</t>
+  </si>
+  <si>
+    <t>Куропаткин 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 10</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Ахмадеев</t>
-  </si>
-  <si>
-    <t>Ахметзянов</t>
-  </si>
-  <si>
-    <t>Ахтямова</t>
-  </si>
-  <si>
-    <t>Бабенко</t>
-  </si>
-  <si>
-    <t>Белов</t>
-  </si>
-  <si>
-    <t>Билалова</t>
-  </si>
-  <si>
-    <t>Галимова</t>
-  </si>
-  <si>
-    <t>Добросов</t>
-  </si>
-  <si>
-    <t>Зеленцов</t>
-  </si>
-  <si>
-    <t>Конькова</t>
-  </si>
-  <si>
-    <t>Крутобережников</t>
-  </si>
-  <si>
-    <t>Курбанбаев</t>
-  </si>
-  <si>
-    <t>Лапыгин</t>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 12</t>
   </si>
   <si>
     <t>Махмудхужаев</t>
-  </si>
-  <si>
-    <t>Пунько</t>
-  </si>
-  <si>
-    <t>Рафикова</t>
-  </si>
-  <si>
-    <t>Соловьева</t>
-  </si>
-  <si>
-    <t>Хайруллина</t>
-  </si>
-  <si>
-    <t>Шагимарданова</t>
-  </si>
-  <si>
-    <t>Щепина</t>
-  </si>
-  <si>
-    <t>Булдаков</t>
-  </si>
-  <si>
-    <t>Газетдинов</t>
-  </si>
-  <si>
-    <t>Казанкин</t>
-  </si>
-  <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
-    <t>Куропаткин 4</t>
-  </si>
-  <si>
-    <t>Куропаткин 5</t>
-  </si>
-  <si>
-    <t>Куропаткин 6</t>
-  </si>
-  <si>
-    <t>Куропаткин 7</t>
-  </si>
-  <si>
-    <t>Куропаткин 8</t>
-  </si>
-  <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
-    <t>№ квартиры</t>
-  </si>
-  <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
-  </si>
-  <si>
-    <t>Сумма, руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Тариф, руб./кв.м.</t>
-  </si>
-  <si>
-    <t>Фамилия квартиросъёмщика</t>
-  </si>
-  <si>
-    <t>Общая сумма, руб.</t>
-  </si>
-  <si>
-    <t>Максимальная сумма, руб.</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Пени за 1 день, руб.</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
-    <t>Камалов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF282C34"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -250,28 +209,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -584,75 +537,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>53</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -665,10 +664,10 @@
         <f>C3*D3</f>
         <v>4081.0000000000005</v>
       </c>
-      <c r="F3" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="2">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -686,14 +685,33 @@
         <f>E3+J3</f>
         <v>4081.0000000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -707,11 +725,11 @@
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>4051.8500000000004</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f>G3+1</f>
         <v>44806</v>
       </c>
@@ -731,14 +749,33 @@
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>4051.8500000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -752,11 +789,11 @@
         <f t="shared" si="0"/>
         <v>4022.7000000000003</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
@@ -776,14 +813,33 @@
         <f t="shared" si="3"/>
         <v>4022.7000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -797,11 +853,11 @@
         <f t="shared" si="0"/>
         <v>3993.55</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
@@ -821,14 +877,33 @@
         <f t="shared" si="3"/>
         <v>3993.55</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -842,11 +917,11 @@
         <f t="shared" si="0"/>
         <v>3964.4</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
@@ -866,14 +941,33 @@
         <f t="shared" si="3"/>
         <v>3964.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -887,11 +981,11 @@
         <f t="shared" si="0"/>
         <v>3935.2500000000005</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
@@ -911,14 +1005,33 @@
         <f t="shared" si="3"/>
         <v>3935.2500000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -932,11 +1045,11 @@
         <f t="shared" si="0"/>
         <v>3906.1000000000004</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
@@ -956,14 +1069,33 @@
         <f t="shared" si="3"/>
         <v>3906.1000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -977,11 +1109,11 @@
         <f t="shared" si="0"/>
         <v>3876.9500000000003</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
@@ -1001,14 +1133,33 @@
         <f t="shared" si="3"/>
         <v>3876.9500000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1022,11 +1173,11 @@
         <f t="shared" si="0"/>
         <v>3847.8</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
@@ -1046,14 +1197,33 @@
         <f t="shared" si="3"/>
         <v>3847.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1067,11 +1237,11 @@
         <f t="shared" si="0"/>
         <v>3818.65</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
@@ -1091,14 +1261,33 @@
         <f t="shared" si="3"/>
         <v>3828.65</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1112,11 +1301,11 @@
         <f t="shared" si="0"/>
         <v>3789.5000000000005</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
@@ -1136,14 +1325,33 @@
         <f t="shared" si="3"/>
         <v>3809.5000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1157,11 +1365,11 @@
         <f t="shared" si="0"/>
         <v>3760.3500000000004</v>
       </c>
-      <c r="F14" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
@@ -1181,14 +1389,33 @@
         <f t="shared" si="3"/>
         <v>3790.3500000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1202,11 +1429,11 @@
         <f t="shared" si="0"/>
         <v>3731.2000000000003</v>
       </c>
-      <c r="F15" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
@@ -1226,14 +1453,33 @@
         <f t="shared" si="3"/>
         <v>3771.2000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1247,11 +1493,11 @@
         <f t="shared" si="0"/>
         <v>3702.05</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
@@ -1271,14 +1517,33 @@
         <f t="shared" si="3"/>
         <v>3752.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1292,11 +1557,11 @@
         <f t="shared" si="0"/>
         <v>3672.9</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="2">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
@@ -1316,14 +1581,33 @@
         <f t="shared" si="3"/>
         <v>3732.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1337,11 +1621,11 @@
         <f t="shared" si="0"/>
         <v>3643.7500000000005</v>
       </c>
-      <c r="F18" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
@@ -1361,14 +1645,33 @@
         <f t="shared" si="3"/>
         <v>3713.7500000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1382,11 +1685,11 @@
         <f t="shared" si="0"/>
         <v>3614.6000000000004</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
@@ -1406,14 +1709,33 @@
         <f t="shared" si="3"/>
         <v>3694.6000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1427,11 +1749,11 @@
         <f t="shared" si="0"/>
         <v>3585.4500000000003</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="2">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
@@ -1451,14 +1773,33 @@
         <f t="shared" si="3"/>
         <v>3675.4500000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1472,11 +1813,11 @@
         <f t="shared" si="0"/>
         <v>3556.3</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
@@ -1496,14 +1837,33 @@
         <f t="shared" si="3"/>
         <v>3656.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1517,11 +1877,11 @@
         <f t="shared" si="0"/>
         <v>3527.15</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
@@ -1541,14 +1901,33 @@
         <f t="shared" si="3"/>
         <v>3637.15</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1562,11 +1941,11 @@
         <f t="shared" si="0"/>
         <v>3498.0000000000005</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="2">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
@@ -1586,14 +1965,33 @@
         <f t="shared" si="3"/>
         <v>3618.0000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1607,11 +2005,11 @@
         <f t="shared" si="0"/>
         <v>3468.8500000000004</v>
       </c>
-      <c r="F24" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
@@ -1631,14 +2029,33 @@
         <f t="shared" si="3"/>
         <v>3598.8500000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1652,11 +2069,11 @@
         <f t="shared" si="0"/>
         <v>3439.7000000000003</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
@@ -1676,14 +2093,33 @@
         <f t="shared" si="3"/>
         <v>3579.7000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1697,11 +2133,11 @@
         <f t="shared" si="0"/>
         <v>3410.55</v>
       </c>
-      <c r="F26" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
@@ -1721,14 +2157,33 @@
         <f t="shared" si="3"/>
         <v>3560.55</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1742,11 +2197,11 @@
         <f t="shared" si="0"/>
         <v>3381.4</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="2">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
@@ -1766,14 +2221,33 @@
         <f t="shared" si="3"/>
         <v>3541.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1787,11 +2261,11 @@
         <f t="shared" si="0"/>
         <v>3352.2500000000005</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="2">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
@@ -1811,14 +2285,33 @@
         <f t="shared" si="3"/>
         <v>3522.2500000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1832,11 +2325,11 @@
         <f t="shared" si="0"/>
         <v>3323.1000000000004</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="2">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
@@ -1856,14 +2349,33 @@
         <f t="shared" si="3"/>
         <v>3503.1000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1877,11 +2389,11 @@
         <f t="shared" si="0"/>
         <v>3293.9500000000003</v>
       </c>
-      <c r="F30" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="2">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
@@ -1901,14 +2413,33 @@
         <f t="shared" si="3"/>
         <v>3483.9500000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1922,11 +2453,11 @@
         <f t="shared" si="0"/>
         <v>3264.8</v>
       </c>
-      <c r="F31" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="2">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
@@ -1946,14 +2477,33 @@
         <f t="shared" si="3"/>
         <v>3464.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1967,11 +2517,11 @@
         <f t="shared" si="0"/>
         <v>3235.65</v>
       </c>
-      <c r="F32" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="2">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
@@ -1991,14 +2541,33 @@
         <f t="shared" si="3"/>
         <v>3445.65</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2012,11 +2581,11 @@
         <f t="shared" si="0"/>
         <v>3206.5000000000005</v>
       </c>
-      <c r="F33" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="2">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
@@ -2036,14 +2605,33 @@
         <f t="shared" si="3"/>
         <v>3426.5000000000005</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2057,11 +2645,11 @@
         <f t="shared" si="0"/>
         <v>3177.3500000000004</v>
       </c>
-      <c r="F34" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="2">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
@@ -2081,8 +2669,27 @@
         <f t="shared" si="3"/>
         <v>3407.3500000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2099,14 +2706,14 @@
         <v>29.150000000000002</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1574.1000000000001</v>
       </c>
-      <c r="F35" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="2">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
@@ -2126,8 +2733,27 @@
         <f t="shared" si="3"/>
         <v>1814.1000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2147,11 +2773,11 @@
         <f t="shared" si="0"/>
         <v>1559.5250000000001</v>
       </c>
-      <c r="F36" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="2">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
@@ -2171,14 +2797,33 @@
         <f t="shared" si="3"/>
         <v>1809.5250000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2192,11 +2837,11 @@
         <f t="shared" si="0"/>
         <v>1544.95</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="2">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
@@ -2216,8 +2861,27 @@
         <f t="shared" si="3"/>
         <v>1804.95</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2237,11 +2901,11 @@
         <f t="shared" si="0"/>
         <v>1530.375</v>
       </c>
-      <c r="F38" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="2">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
@@ -2261,54 +2925,63 @@
         <f t="shared" si="3"/>
         <v>1800.375</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>126122</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="1">
+        <v>45</v>
+      </c>
+      <c r="C41">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="1">
+        <v>42</v>
+      </c>
+      <c r="C42">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43">
         <f>MAX(K3:K38)</f>
         <v>4081.0000000000005</v>
       </c>
-      <c r="F43" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -116,18 +116,6 @@
     <t>Куропаткин 5</t>
   </si>
   <si>
-    <t>Куропаткин 6</t>
-  </si>
-  <si>
-    <t>Куропаткин 7</t>
-  </si>
-  <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 10</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -167,28 +155,47 @@
     <t>Куропаткин 4</t>
   </si>
   <si>
-    <t>Куропаткин 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 12</t>
-  </si>
-  <si>
     <t>Махмудхужаев</t>
+  </si>
+  <si>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -212,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,6 +228,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,16 +607,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -615,16 +625,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1735,7 +1745,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -2183,7 +2193,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -2247,7 +2257,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -2311,7 +2321,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -2374,8 +2384,8 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>46</v>
+      <c r="B30" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -2439,7 +2449,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -2503,7 +2513,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -2567,7 +2577,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2631,7 +2641,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2695,7 +2705,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2759,7 +2769,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2823,7 +2833,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2887,7 +2897,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2947,7 +2957,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2956,7 +2966,7 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2965,7 +2975,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2974,7 +2984,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>
@@ -2983,5 +2993,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -106,18 +106,6 @@
     <t>Казанкин</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
-    <t>Куропаткин 4</t>
-  </si>
-  <si>
     <t>Куропаткин 5</t>
   </si>
   <si>
@@ -178,13 +166,25 @@
     <t>Роман</t>
   </si>
   <si>
-    <t xml:space="preserve"> Куропаткин 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 8</t>
+    <t xml:space="preserve"> Куропаткин 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 10</t>
+  </si>
+  <si>
+    <t>Куропаткин 9</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
+  </si>
+  <si>
+    <t>Куропаткин 7</t>
+  </si>
+  <si>
+    <t>Куропаткин 6</t>
   </si>
 </sst>
 </file>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -614,37 +614,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1728,7 +1728,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1773,7 +1773,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1818,7 +1818,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1863,7 +1863,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1953,7 +1953,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1998,7 +1998,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2043,7 +2043,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2088,7 +2088,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2133,7 +2133,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2178,7 +2178,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2223,7 +2223,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -166,25 +166,25 @@
     <t>Роман</t>
   </si>
   <si>
-    <t xml:space="preserve"> Куропаткин 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 8</t>
-  </si>
-  <si>
-    <t>Куропаткин 7</t>
-  </si>
-  <si>
-    <t>Куропаткин 6</t>
+    <t xml:space="preserve"> Куропаткин 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
   </si>
 </sst>
 </file>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -1818,7 +1818,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1863,7 +1863,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1908,7 +1908,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1953,7 +1953,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1998,7 +1998,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2043,7 +2043,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2088,7 +2088,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -160,31 +160,31 @@
     <t>Ахмадуллина</t>
   </si>
   <si>
+    <t xml:space="preserve"> Куропаткин 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
     <t>Мохамед</t>
-  </si>
-  <si>
-    <t>Роман</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 6</t>
-  </si>
-  <si>
-    <t>Куропаткин 4</t>
-  </si>
-  <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Куропаткин 1</t>
   </si>
 </sst>
 </file>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1818,7 +1818,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1863,7 +1863,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1908,7 +1908,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1953,7 +1953,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1998,7 +1998,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2043,7 +2043,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2133,7 +2133,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2178,7 +2178,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2223,7 +2223,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2267,7 +2267,7 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="4">

--- a/LR3/table_1_53.xlsx
+++ b/LR3/table_1_53.xlsx
@@ -160,15 +160,6 @@
     <t>Ахмадуллина</t>
   </si>
   <si>
-    <t xml:space="preserve"> Куропаткин 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 6</t>
-  </si>
-  <si>
     <t>Куропаткин 4</t>
   </si>
   <si>
@@ -185,6 +176,15 @@
   </si>
   <si>
     <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 7</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +232,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,6 +275,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -586,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,13 +622,13 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1818,7 +1827,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1863,7 +1872,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1908,7 +1917,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1953,7 +1962,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1998,7 +2007,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2043,7 +2052,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2133,7 +2142,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2178,7 +2187,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2223,7 +2232,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
